--- a/Familiarity Reviews/Documentation/Systems Level Test (Documentation).xlsx
+++ b/Familiarity Reviews/Documentation/Systems Level Test (Documentation).xlsx
@@ -1,37 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Academic Notes &amp; College\git\cit360\Familiarity Requests\Request 2 - Week 10\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Eclipse Projects 2020\CIT360\cit360\Familiarity Reviews\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58254432-E52F-42DE-8828-1B90E0D09AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257728A7-9237-4976-9709-2C92FAA043E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7AF24EFC-6245-4049-8189-0FA24C265115}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+  <si>
+    <t>CIT360</t>
+  </si>
   <si>
     <t>Test Script Name:</t>
   </si>
@@ -42,9 +39,6 @@
     <t>Prerequisites</t>
   </si>
   <si>
-    <t>SQL Database must be started. Tomcat server must be running. Eclipse project must be cleaned &amp; freshly rebuilt. Tomcat working directory must be cleaned before restarting.</t>
-  </si>
-  <si>
     <t>Step</t>
   </si>
   <si>
@@ -66,43 +60,55 @@
     <t>Defects/Comments</t>
   </si>
   <si>
-    <t>index.jsp --&gt; SystemTest.jsp</t>
-  </si>
-  <si>
-    <t>Test that SQL database, Tomcat server, hibernate, JSP servlet, application controller, and Java application are all functioning as intended.</t>
-  </si>
-  <si>
-    <t>Start the SQL database server.</t>
-  </si>
-  <si>
-    <t>Start the Tomcat server.</t>
-  </si>
-  <si>
-    <t>The server should start.</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Run the FR2 project on the server.</t>
-  </si>
-  <si>
-    <t>The IDE's internal web browser (or an external browser) should load the index.jsp servlet.</t>
-  </si>
-  <si>
-    <t>Enter "SystemTest" into the text field.</t>
-  </si>
-  <si>
-    <t>The servlet should redirect you to SystemTest.jsp</t>
-  </si>
-  <si>
-    <t>View results on SystemTest.jsp</t>
-  </si>
-  <si>
-    <t>If everything is running as intended, SystemTest.jsp will state that the SQL database, Tomcat server, application controller, JSP servlet, and Java application are all running correctly.</t>
-  </si>
-  <si>
-    <t>CIT360</t>
+    <t>The servlet should redirect you to Error.jsp. This should tell you that you've provided invalid input and give you suggestions as to what valid input you might provide.</t>
+  </si>
+  <si>
+    <t>Enter "Hibernate" into the text field.</t>
+  </si>
+  <si>
+    <t>Enter something invalid into the text field. (Anything other than Hibernate, Home, or Input.)</t>
+  </si>
+  <si>
+    <t>Enter "Input" into the text field.</t>
+  </si>
+  <si>
+    <t>On Input.jsp, enter a number into each text field on the page as indicated, then hit "Submit."</t>
+  </si>
+  <si>
+    <t>This should redirect you to Input.jsp</t>
+  </si>
+  <si>
+    <t>This should redirect you to Logic.jsp, and it should display the sum of the two numbers that you provided.</t>
+  </si>
+  <si>
+    <t>If you've reached this step, all tests have passed, and everything is running as intended!</t>
+  </si>
+  <si>
+    <t>SystemTest.jsp</t>
+  </si>
+  <si>
+    <t>Run the file called SystemTest.jsp</t>
+  </si>
+  <si>
+    <t>This should take you to the home page of the testing application, called SystemTest.jsp</t>
+  </si>
+  <si>
+    <t>Test that the following are functioning correctly: Hibernate (GetAllData.java), Logic.java, ApplicationController.java, ClientServlet.java, CommandHelper.java, and Dispatcher.java. The first file exists strictly to run SQL queries via hibernate. The rest are all components of the application controller pattern example.</t>
+  </si>
+  <si>
+    <t>SQL Database must be started. Tomcat server must be running. Eclipse project must be cleaned &amp; freshly rebuilt. Tomcat working directory must be cleaned before restarting. Hibernate database must have data in both the employee &amp; student tables. Due to this, it's best to run CreateData.java before testing anything else, as that will insert data into the database, which prepares it for the query used in the test.</t>
+  </si>
+  <si>
+    <t>If everything is running as intended, HibernateTest.jsp will state that the application controller, hibernate, and Java application are all running correctly. You should also see the results of a database query.</t>
+  </si>
+  <si>
+    <t>View results on HibernateTest.jsp</t>
+  </si>
+  <si>
+    <t>The servlet should redirect you to HibernateTest.jsp</t>
   </si>
 </sst>
 </file>
@@ -132,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -150,9 +156,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -165,7 +169,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -186,6 +192,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -200,10 +217,10 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -212,10 +229,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -252,7 +269,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -264,7 +281,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -311,23 +328,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -363,23 +363,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,260 +514,294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB485D6E-79BB-43FB-9426-C02920F5DC18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16363" width="9.140625" style="1"/>
-    <col min="16364" max="16368" width="9.140625" style="1" customWidth="1"/>
-    <col min="16369" max="16384" width="9.140625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="3"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+    <row r="7" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="3"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+    <row r="8" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="3"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+    <row r="9" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="3"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+    <row r="10" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="3"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="29">
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:L2"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:L3"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:L3"/>
     <mergeCell ref="E4:L4"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
